--- a/DangKiHĐH/Danh sách Hệ điều hành.xlsx
+++ b/DangKiHĐH/Danh sách Hệ điều hành.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -137,6 +137,45 @@
   </si>
   <si>
     <t>DPM185172</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Sang</t>
+  </si>
+  <si>
+    <t>DTH185368</t>
+  </si>
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>DH19TH1</t>
+  </si>
+  <si>
+    <t>DH19PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DH19PM </t>
+  </si>
+  <si>
+    <t>DH18TH2</t>
+  </si>
+  <si>
+    <t>DH19TH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DH18TH2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DH19TH2 </t>
+  </si>
+  <si>
+    <t>DH18PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh Ngọc Quí </t>
+  </si>
+  <si>
+    <t>DTH185361</t>
   </si>
 </sst>
 </file>
@@ -485,19 +524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +547,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,8 +561,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,8 +575,11 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -540,8 +589,11 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -551,8 +603,11 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -562,8 +617,11 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -573,8 +631,11 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -584,8 +645,11 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -595,8 +659,11 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -606,8 +673,11 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -617,8 +687,11 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -628,8 +701,11 @@
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -639,8 +715,11 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -650,8 +729,11 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -661,8 +743,11 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -672,8 +757,11 @@
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -683,8 +771,11 @@
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -694,8 +785,11 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -705,8 +799,11 @@
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -716,10 +813,36 @@
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
